--- a/biology/Médecine/1177_en_santé_et_médecine/1177_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1177_en_santé_et_médecine/1177_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1177_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1177_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1177 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1177_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1177_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les chanoines de Laon font construire dans leur ville un hôpital destiné à recevoir les malades « gisants » et les pauvres « passants[1] ».
-Un hôpital, dit « de Montjoux » et dont la tradition attribue la fondation à Renaud III, comte palatin de Bourgogne, est attesté à Salins[2].
-Une aumônerie (« eleemosyna ») qui est à l'origine de l'hôpital du Saint-Esprit de Provins, en Champagne, est mentionnée pour la première fois dans une bulle du pape Alexandre III, comme maison hospitalière, appartenant à l'hospice de Montjoux et dépendant du comte Henri le Libéral[3].
-Fondation de la maison-Dieu de Lormes en Bourgogne, avec une maladrerie[4].
-Barisone II, juge de Torres, fonde une léproserie sur la route qui va de Pise à Porto Pisano en Toscane, établissement qu'il place sous la dépendance de l'hôpital San Leonardo (it) de Stagno[5].
-Entre 1150 et 1177 : fondation probable de la Maison-Dieu de Limoges sous l'évêque Gérard du Cher[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les chanoines de Laon font construire dans leur ville un hôpital destiné à recevoir les malades « gisants » et les pauvres « passants ».
+Un hôpital, dit « de Montjoux » et dont la tradition attribue la fondation à Renaud III, comte palatin de Bourgogne, est attesté à Salins.
+Une aumônerie (« eleemosyna ») qui est à l'origine de l'hôpital du Saint-Esprit de Provins, en Champagne, est mentionnée pour la première fois dans une bulle du pape Alexandre III, comme maison hospitalière, appartenant à l'hospice de Montjoux et dépendant du comte Henri le Libéral.
+Fondation de la maison-Dieu de Lormes en Bourgogne, avec une maladrerie.
+Barisone II, juge de Torres, fonde une léproserie sur la route qui va de Pise à Porto Pisano en Toscane, établissement qu'il place sous la dépendance de l'hôpital San Leonardo (it) de Stagno.
+Entre 1150 et 1177 : fondation probable de la Maison-Dieu de Limoges sous l'évêque Gérard du Cher.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1177_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1177_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fl. Godefroi, médecin de Chrétienne de Marck, comtesse de Guînes[7].
-Vers 1177 : fl. Géraud, médecin, donateur d'un champ à l'abbaye de Durbon, en Dauphiné[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fl. Godefroi, médecin de Chrétienne de Marck, comtesse de Guînes.
+Vers 1177 : fl. Géraud, médecin, donateur d'un champ à l'abbaye de Durbon, en Dauphiné.
 </t>
         </is>
       </c>
